--- a/biology/Botanique/Musée_d'histoire_naturelle_de_l'université_de_Tartu/Musée_d'histoire_naturelle_de_l'université_de_Tartu.xlsx
+++ b/biology/Botanique/Musée_d'histoire_naturelle_de_l'université_de_Tartu/Musée_d'histoire_naturelle_de_l'université_de_Tartu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_d%27histoire_naturelle_de_l%27universit%C3%A9_de_Tartu</t>
+          <t>Musée_d'histoire_naturelle_de_l'université_de_Tartu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée d'histoire naturelle de l'université de Tartu (en estonien : Tartu Ülikooli loodusmuuseum) est un musée à Tartu en Estonie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_d%27histoire_naturelle_de_l%27universit%C3%A9_de_Tartu</t>
+          <t>Musée_d'histoire_naturelle_de_l'université_de_Tartu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le musée a été créé en 1802 ce qui en fait le plus ancien musée d'Estonie[1].
-Installé à Vanemuise 46, le musée d'histoire naturelle comprend les collections de géologie, de zoologie, de botanique et de mycologie, le Département des expositions et de l'éducation à la nature et le Groupe de travail sur l'informatique et les archives numériques de la biodiversité[2]. 
-En 2014, le jardin botanique et le musée d'histoire naturelle de l'université de Tartu ont fusionné en une seule institution Musée d'histoire naturelle et jardin botanique de l'université de Tartu[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée a été créé en 1802 ce qui en fait le plus ancien musée d'Estonie.
+Installé à Vanemuise 46, le musée d'histoire naturelle comprend les collections de géologie, de zoologie, de botanique et de mycologie, le Département des expositions et de l'éducation à la nature et le Groupe de travail sur l'informatique et les archives numériques de la biodiversité. 
+En 2014, le jardin botanique et le musée d'histoire naturelle de l'université de Tartu ont fusionné en une seule institution Musée d'histoire naturelle et jardin botanique de l'université de Tartu.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_d%27histoire_naturelle_de_l%27universit%C3%A9_de_Tartu</t>
+          <t>Musée_d'histoire_naturelle_de_l'université_de_Tartu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_d%27histoire_naturelle_de_l%27universit%C3%A9_de_Tartu</t>
+          <t>Musée_d'histoire_naturelle_de_l'université_de_Tartu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,7 +586,9 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
